--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail7 Features.xlsx
@@ -4911,7 +4911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4922,29 +4922,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4965,115 +4963,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5090,72 +5078,66 @@
         <v>1.903462483762339e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.814844398395939</v>
+        <v>1.291416073828949e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.33968203931941</v>
+        <v>6.389019549369428e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.291416073828949e-07</v>
+        <v>-0.103659282283913</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.389019549369428e-07</v>
+        <v>0.3335487136784763</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.103659282283913</v>
+        <v>0.1217060298990221</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3335487136784763</v>
+        <v>1.927216151602118</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1217060298990221</v>
+        <v>3.174939804359141</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.956420276483745</v>
+        <v>5.048440453878354</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.174939804359141</v>
+        <v>2.174505637447686e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.048440453878354</v>
+        <v>20392283087.08816</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.174505637447686e-18</v>
+        <v>5.869523250224233e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>20392283087.08816</v>
+        <v>904.2577523719358</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.869523250224233e-09</v>
+        <v>0.0001276355744094986</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>904.2577523719358</v>
+        <v>9.56637050571454</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001276355744094986</v>
+        <v>1.181985926104814</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.56637050571454</v>
+        <v>0.01168062634557592</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.181985926104814</v>
+        <v>3.656526470845666</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01168062634557592</v>
+        <v>0.9598299688140967</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.656526470845666</v>
+        <v>1.011873266181139</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9598299688140967</v>
+        <v>94</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.011873266181139</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.850093331594973</v>
       </c>
     </row>
@@ -5170,72 +5152,66 @@
         <v>1.372678777029744e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.727109961019917</v>
+        <v>9.409640350983215e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.98852552047526</v>
+        <v>6.372459186813487e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.409640350983215e-08</v>
+        <v>-0.1000834532855465</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.372459186813487e-07</v>
+        <v>0.338850095335365</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1000834532855465</v>
+        <v>0.1245321648802427</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.338850095335365</v>
+        <v>1.924545632809493</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1245321648802427</v>
+        <v>3.12913052027919</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.953466922215773</v>
+        <v>5.041435359545535</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.12913052027919</v>
+        <v>2.180552804145763e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.041435359545535</v>
+        <v>20514439884.11803</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.180552804145763e-18</v>
+        <v>5.834745445962671e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>20514439884.11803</v>
+        <v>917.6687347318839</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.834745445962671e-09</v>
+        <v>0.000131043200081482</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>917.6687347318839</v>
+        <v>10.49799474203297</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000131043200081482</v>
+        <v>1.143814695747011</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.49799474203297</v>
+        <v>0.01444199505207515</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.143814695747011</v>
+        <v>3.52134171214334</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01444199505207515</v>
+        <v>0.9613073014379933</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.52134171214334</v>
+        <v>1.029206064799105</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9613073014379933</v>
+        <v>84</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.029206064799105</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.866212879100537</v>
       </c>
     </row>
@@ -5250,72 +5226,66 @@
         <v>9.949495509173444e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.497346194624507</v>
+        <v>6.860821092414439e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.86977406272533</v>
+        <v>6.36105634171846e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.860821092414439e-08</v>
+        <v>-0.09363173335551604</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.36105634171846e-07</v>
+        <v>0.3441793156697643</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09363173335551604</v>
+        <v>0.1269191248103745</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3441793156697643</v>
+        <v>1.933597368345787</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1269191248103745</v>
+        <v>3.251124393370104</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.959040913482632</v>
+        <v>4.975830428560635</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.251124393370104</v>
+        <v>2.238431820908627e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.975830428560635</v>
+        <v>20555090029.58858</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.238431820908627e-18</v>
+        <v>5.85417316847923e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>20555090029.58858</v>
+        <v>945.7636924640933</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.85417316847923e-09</v>
+        <v>0.0001378539484125831</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>945.7636924640933</v>
+        <v>10.03724530315152</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001378539484125831</v>
+        <v>1.23586249642087</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.03724530315152</v>
+        <v>0.01388827431597867</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.23586249642087</v>
+        <v>3.690643633438572</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01388827431597867</v>
+        <v>0.962169842046748</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.690643633438572</v>
+        <v>1.019063604487956</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.962169842046748</v>
+        <v>70</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.019063604487956</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.962669406178122</v>
       </c>
     </row>
@@ -5330,72 +5300,66 @@
         <v>7.345142818813938e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.998717067713214</v>
+        <v>5.010404552381811e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>11.25004865858525</v>
+        <v>6.353470129013482e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.010404552381811e-08</v>
+        <v>-0.08231867715344425</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.353470129013482e-07</v>
+        <v>0.3465027903342833</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08231867715344425</v>
+        <v>0.1265448393528777</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3465027903342833</v>
+        <v>1.938426310703201</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1265448393528777</v>
+        <v>3.101233565241519</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.959862561051771</v>
+        <v>5.206049013845387</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.101233565241519</v>
+        <v>2.582852356190763e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.206049013845387</v>
+        <v>18927317348.14727</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.582852356190763e-18</v>
+        <v>6.400015320623561e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>18927317348.14727</v>
+        <v>925.2896599678353</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.400015320623561e-09</v>
+        <v>0.0001480178456694936</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>925.2896599678353</v>
+        <v>9.379788957635277</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001480178456694936</v>
+        <v>1.398496748939272</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.379788957635277</v>
+        <v>0.01302267532155696</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.398496748939272</v>
+        <v>3.737882239407017</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01302267532155696</v>
+        <v>0.9619638012998093</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.737882239407017</v>
+        <v>1.083558670547097</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9619638012998093</v>
+        <v>89</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.083558670547097</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.073765933913184</v>
       </c>
     </row>
@@ -5410,72 +5374,66 @@
         <v>5.665268981408306e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.161460938499787</v>
+        <v>3.670021849495656e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6.7528935908325</v>
+        <v>6.348681629645632e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.670021849495656e-08</v>
+        <v>-0.06488964763784348</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.348681629645632e-07</v>
+        <v>0.3391646516920278</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06488964763784348</v>
+        <v>0.1189802982175263</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3391646516920278</v>
+        <v>1.940317152972443</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1189802982175263</v>
+        <v>2.721386653677434</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.959469135415098</v>
+        <v>4.844651491186149</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.721386653677434</v>
+        <v>4.138457919033259e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.844651491186149</v>
+        <v>11852511461.66459</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.138457919033259e-18</v>
+        <v>1.023144142593764e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>11852511461.66459</v>
+        <v>581.3789610469377</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.023144142593764e-08</v>
+        <v>0.0001332785497976312</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>581.3789610469377</v>
+        <v>9.116939695928163</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001332785497976312</v>
+        <v>1.327515245742416</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.116939695928163</v>
+        <v>0.01107792505901447</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.327515245742416</v>
+        <v>3.696436598519477</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01107792505901447</v>
+        <v>0.9610472058230589</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.696436598519477</v>
+        <v>1.129526716409125</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9610472058230589</v>
+        <v>89</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.129526716409125</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.945292922372329</v>
       </c>
     </row>
@@ -5490,72 +5448,66 @@
         <v>4.718993561463489e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.25966416959429</v>
+        <v>2.689073668412148e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.147094476384249</v>
+        <v>6.345908626130719e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.689073668412148e-08</v>
+        <v>-0.0418390861453938</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.345908626130719e-07</v>
+        <v>0.3122178667515051</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0418390861453938</v>
+        <v>0.09902532696205874</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3122178667515051</v>
+        <v>1.946304066711856</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.09902532696205874</v>
+        <v>2.915327496641083</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.961539368445982</v>
+        <v>4.389876165411795</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.915327496641083</v>
+        <v>5.040331333200458e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.389876165411795</v>
+        <v>9640393930.668476</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.040331333200458e-18</v>
+        <v>1.262284502699398e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>9640393930.668476</v>
+        <v>468.4342566761935</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.262284502699398e-08</v>
+        <v>0.0001317831308760705</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>468.4342566761935</v>
+        <v>9.039683095980628</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001317831308760705</v>
+        <v>1.226932462751156</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.039683095980628</v>
+        <v>0.01076877325355883</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.226932462751156</v>
+        <v>3.437359685424573</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01076877325355883</v>
+        <v>0.959382393312786</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.437359685424573</v>
+        <v>1.114564287168614</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.959382393312786</v>
+        <v>85</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.114564287168614</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.431633054125746</v>
       </c>
     </row>
@@ -5570,72 +5522,66 @@
         <v>4.312574119307013e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7668578213675139</v>
+        <v>1.968629688699029e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.007830714113195913</v>
+        <v>6.34458419078795e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.968629688699029e-08</v>
+        <v>-0.01744036708067547</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.34458419078795e-07</v>
+        <v>0.267421025559314</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01744036708067547</v>
+        <v>0.07168743135318326</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.267421025559314</v>
+        <v>1.947737514372019</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07168743135318326</v>
+        <v>2.73535813065607</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.962423383250112</v>
+        <v>4.277655993378574</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.73535813065607</v>
+        <v>5.308256658262873e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.277655993378574</v>
+        <v>9154833745.318497</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.308256658262873e-18</v>
+        <v>1.329058738616139e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>9154833745.318497</v>
+        <v>444.8901974214421</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.329058738616139e-08</v>
+        <v>0.0001333719780663641</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>444.8901974214421</v>
+        <v>9.243874238035099</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001333719780663641</v>
+        <v>1.194701971538386</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.243874238035099</v>
+        <v>0.01139653028575855</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.194701971538386</v>
+        <v>3.302922781575059</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01139653028575855</v>
+        <v>0.9596430719132264</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.302922781575059</v>
+        <v>1.125068330305447</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9596430719132264</v>
+        <v>71</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.125068330305447</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.224237030769109</v>
       </c>
     </row>
@@ -5650,72 +5596,66 @@
         <v>4.235420658945252e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6837829704023332</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2900909580902393</v>
+        <v>6.344292992277957e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.002638743443037562</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.344292992277957e-07</v>
+        <v>0.2213593167967613</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.002638743443037562</v>
+        <v>0.04893761167531043</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2213593167967613</v>
+        <v>1.947547257021188</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04893761167531043</v>
+        <v>2.616213389468939</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.961953705882981</v>
+        <v>4.308810476873302</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.616213389468939</v>
+        <v>5.231772381741907e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.308810476873302</v>
+        <v>9100194184.311314</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.231772381741907e-18</v>
+        <v>1.336301261633099e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>9100194184.311314</v>
+        <v>433.2615610210521</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.336301261633099e-08</v>
+        <v>0.0001329361045426086</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>433.2615610210521</v>
+        <v>9.170700909991519</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001329361045426086</v>
+        <v>1.220012594779987</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.170700909991519</v>
+        <v>0.01118015971889438</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.220012594779987</v>
+        <v>3.30556347552709</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01118015971889438</v>
+        <v>0.958813666718995</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.30556347552709</v>
+        <v>1.150769896637565</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.958813666718995</v>
+        <v>69</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.150769896637565</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.224577190525291</v>
       </c>
     </row>
@@ -5730,72 +5670,66 @@
         <v>4.316926385663311e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7232713897850175</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2410392078305934</v>
+        <v>6.344726246700764e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.01649570258718221</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.344726246700764e-07</v>
+        <v>0.1860301160530186</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01649570258718221</v>
+        <v>0.03484687662401975</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1860301160530186</v>
+        <v>1.94833887910421</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03484687662401975</v>
+        <v>2.558066001435649</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.958186498539876</v>
+        <v>4.47128527265604</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.558066001435649</v>
+        <v>4.858462630466845e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.47128527265604</v>
+        <v>9532886962.052713</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.858462630466845e-18</v>
+        <v>1.275206197845238e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>9532886962.052713</v>
+        <v>441.5173285280255</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.275206197845238e-08</v>
+        <v>0.0001321459986239624</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>441.5173285280255</v>
+        <v>8.934381465374759</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001321459986239624</v>
+        <v>1.272045166917516</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.934381465374759</v>
+        <v>0.01054831279958279</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.272045166917516</v>
+        <v>3.366503674668214</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01054831279958279</v>
+        <v>0.9600067482180977</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.366503674668214</v>
+        <v>1.148789892563449</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9600067482180977</v>
+        <v>107</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.148789892563449</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.316247737279576</v>
       </c>
     </row>
@@ -5810,72 +5744,66 @@
         <v>4.456751147615354e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7428933342590187</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.3061628481651288</v>
+        <v>6.345657445804066e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.02515261437082621</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.345657445804066e-07</v>
+        <v>0.1629245613449062</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02515261437082621</v>
+        <v>0.02716210209456239</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1629245613449062</v>
+        <v>1.950592715673945</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02716210209456239</v>
+        <v>2.415611470892844</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.95632541880511</v>
+        <v>4.638763702163478</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.415611470892844</v>
+        <v>4.152867934617328e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.638763702163478</v>
+        <v>10995015089.21434</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.152867934617328e-18</v>
+        <v>1.105871830060944e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>10995015089.21434</v>
+        <v>502.0416864092145</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.105871830060944e-08</v>
+        <v>0.0001317535566846835</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>502.0416864092145</v>
+        <v>8.662643631205805</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001317535566846835</v>
+        <v>1.330343124996711</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.662643631205805</v>
+        <v>0.009886970647836481</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.330343124996711</v>
+        <v>3.45836719215299</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009886970647836481</v>
+        <v>0.9610840213467149</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.45836719215299</v>
+        <v>1.150215913026618</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9610840213467149</v>
+        <v>148</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.150215913026618</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.491838622808977</v>
       </c>
     </row>
@@ -5890,72 +5818,66 @@
         <v>4.607884525305638e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7244470840862254</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4533373321696956</v>
+        <v>6.346932469138666e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.03062546955120483</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.346932469138666e-07</v>
+        <v>0.1476180115999186</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03062546955120483</v>
+        <v>0.02272134402749749</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1476180115999186</v>
+        <v>1.951473787437773</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02272134402749749</v>
+        <v>2.420841753140512</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.961992935929335</v>
+        <v>5.345888518431329</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.420841753140512</v>
+        <v>3.12689159404616e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.345888518431329</v>
+        <v>14814926160.84739</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.12689159404616e-18</v>
+        <v>8.197042604130023e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>14814926160.84739</v>
+        <v>686.2965370127162</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.197042604130023e-09</v>
+        <v>0.0001363434350645553</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>686.2965370127162</v>
+        <v>8.103576915349224</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001363434350645553</v>
+        <v>1.373390749569829</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.103576915349224</v>
+        <v>0.008953395079602976</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.373390749569829</v>
+        <v>3.505070096961634</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008953395079602976</v>
+        <v>0.9625623183067327</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.505070096961634</v>
+        <v>1.159384417885544</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9625623183067327</v>
+        <v>202</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.159384417885544</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.482749237811083</v>
       </c>
     </row>
@@ -5970,72 +5892,66 @@
         <v>4.750898701066429e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6799039789387524</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.6205161014502849</v>
+        <v>6.348456712046664e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.03419737223677023</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.348456712046664e-07</v>
+        <v>0.1370901627059807</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03419737223677023</v>
+        <v>0.01995903056773168</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1370901627059807</v>
+        <v>1.945429381360605</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01995903056773168</v>
+        <v>2.867398108504616</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.960413234018858</v>
+        <v>5.854554774377942</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.867398108504616</v>
+        <v>2.607143126283443e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.854554774377942</v>
+        <v>17732483646.16899</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.607143126283443e-18</v>
+        <v>6.849729535472774e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>17732483646.16899</v>
+        <v>819.7926298824178</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.849729535472774e-09</v>
+        <v>0.0001365060436711793</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>819.7926298824178</v>
+        <v>8.870796034768654</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001365060436711793</v>
+        <v>1.2255546867999</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.870796034768654</v>
+        <v>0.01074180012531227</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.2255546867999</v>
+        <v>3.416642121940829</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01074180012531227</v>
+        <v>0.9638796583930782</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.416642121940829</v>
+        <v>1.10406285222041</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9638796583930782</v>
+        <v>245</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.10406285222041</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>245</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.480860086647061</v>
       </c>
     </row>
@@ -6050,72 +5966,66 @@
         <v>4.877596127150811e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6210381265659964</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7773299288240807</v>
+        <v>6.350168667156652e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.03672240168525574</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.350168667156652e-07</v>
+        <v>0.12933790461581</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03672240168525574</v>
+        <v>0.01807409940616612</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.12933790461581</v>
+        <v>1.945837335903567</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01807409940616612</v>
+        <v>2.82223711275075</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.962359949082171</v>
+        <v>5.857803312791034</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.82223711275075</v>
+        <v>2.604252262346833e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.857803312791034</v>
+        <v>17905895201.53818</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.604252262346833e-18</v>
+        <v>6.791813507833461e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>17905895201.53818</v>
+        <v>834.9781806767243</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.791813507833461e-09</v>
+        <v>0.0001348541371719467</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>834.9781806767243</v>
+        <v>9.635331206356605</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001348541371719467</v>
+        <v>1.16159179384764</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.635331206356605</v>
+        <v>0.01251980515888665</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.16159179384764</v>
+        <v>3.276261405794652</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01251980515888665</v>
+        <v>0.9646898569831296</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.276261405794652</v>
+        <v>1.080549200568766</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9646898569831296</v>
+        <v>278</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.080549200568766</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>278</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.564980501668499</v>
       </c>
     </row>
@@ -6130,72 +6040,66 @@
         <v>4.983579034466211e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5551800696783852</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9130646560010254</v>
+        <v>6.35202960810251e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.03859630468548521</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.35202960810251e-07</v>
+        <v>0.1234638352226115</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03859630468548521</v>
+        <v>0.01673113563757767</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1234638352226115</v>
+        <v>1.942969797065022</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01673113563757767</v>
+        <v>2.892016704003787</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.96371706348599</v>
+        <v>5.850919345177473</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.892016704003787</v>
+        <v>2.610383994346581e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.850919345177473</v>
+        <v>18107019959.39774</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.610383994346581e-18</v>
+        <v>6.727496838823084e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>18107019959.39774</v>
+        <v>855.8513864125945</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.727496838823084e-09</v>
+        <v>0.0001310144583724555</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>855.8513864125945</v>
+        <v>8.99541932640113</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001310144583724555</v>
+        <v>1.199641249202776</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.99541932640113</v>
+        <v>0.01060137145671935</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.199641249202776</v>
+        <v>3.382927790872923</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01060137145671935</v>
+        <v>0.9642879626448099</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.382927790872923</v>
+        <v>1.079965898094202</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9642879626448099</v>
+        <v>308</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.079965898094202</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>308</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.539039037133534</v>
       </c>
     </row>
@@ -6210,72 +6114,66 @@
         <v>5.066326700347243e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.4870340133057463</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.025407957462622</v>
+        <v>6.354008471617638e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.04005006495779653</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.354008471617638e-07</v>
+        <v>0.1191160028339883</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04005006495779653</v>
+        <v>0.01579143663761856</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1191160028339883</v>
+        <v>1.93952272204267</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01579143663761856</v>
+        <v>2.842622457019472</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.959908373391469</v>
+        <v>5.793466691102097</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.842622457019472</v>
+        <v>2.662414022397008e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.793466691102097</v>
+        <v>17987750389.07064</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.662414022397008e-18</v>
+        <v>6.773828896047822e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>17987750389.07064</v>
+        <v>861.4484554670967</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.773828896047822e-09</v>
+        <v>0.0001320243272938624</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>861.4484554670967</v>
+        <v>8.337631347319066</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001320243272938624</v>
+        <v>1.29854944805131</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.337631347319066</v>
+        <v>0.009177815874368606</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.29854944805131</v>
+        <v>3.515991784950132</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009177815874368606</v>
+        <v>0.9634113409224763</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.515991784950132</v>
+        <v>1.074087357778643</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9634113409224763</v>
+        <v>353</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.074087357778643</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>353</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.593421078026002</v>
       </c>
     </row>
@@ -6290,72 +6188,66 @@
         <v>5.125841188737518e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4198819863524053</v>
+        <v>1.520031502904694e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.11585072130422</v>
+        <v>6.35608425962025e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.520031502904694e-08</v>
+        <v>0.04132937697504468</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.35608425962025e-07</v>
+        <v>0.1159889511092106</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04132937697504468</v>
+        <v>0.01516093944174488</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1159889511092106</v>
+        <v>1.93445967276155</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01516093944174488</v>
+        <v>2.881353562248169</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.958718168223663</v>
+        <v>5.686844139704754</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.881353562248169</v>
+        <v>2.763185043243354e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.686844139704754</v>
+        <v>17117605955.18735</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.763185043243354e-18</v>
+        <v>7.105825966841884e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>17117605955.18735</v>
+        <v>809.6475741102753</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.105825966841884e-09</v>
+        <v>0.0001421277823152072</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>809.6475741102753</v>
+        <v>8.452596441596564</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001421277823152072</v>
+        <v>1.423584039718572</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.452596441596564</v>
+        <v>0.01015451648253122</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.423584039718572</v>
+        <v>3.656515922929616</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01015451648253122</v>
+        <v>0.962373147003215</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.656515922929616</v>
+        <v>1.065302881038571</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.962373147003215</v>
+        <v>336</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.065302881038571</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.903466934028851</v>
       </c>
     </row>
@@ -6732,7 +6624,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.39618738565414</v>
+        <v>1.393995031043537</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.373709978766908</v>
@@ -6821,7 +6713,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.427042854384986</v>
+        <v>1.427729671375316</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.224149678174176</v>
@@ -6910,7 +6802,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.409877018393123</v>
+        <v>1.411735496403435</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.226699308140812</v>
@@ -6999,7 +6891,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.41386283720941</v>
+        <v>1.407695200467975</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.3692079535819</v>
@@ -7088,7 +6980,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.423997878306572</v>
+        <v>1.414034564972475</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.400427703675637</v>
@@ -7177,7 +7069,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.427369959821617</v>
+        <v>1.419611697534316</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.274104710676859</v>
@@ -7266,7 +7158,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.427850375188368</v>
+        <v>1.413009147524528</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.38328393360041</v>
@@ -7355,7 +7247,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.412488053909001</v>
+        <v>1.398496873561781</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.225411902622103</v>
@@ -7444,7 +7336,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.438516991394194</v>
+        <v>1.420085033249994</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.470730576534737</v>
@@ -7533,7 +7425,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.442466857498079</v>
+        <v>1.422606172310592</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.522293225165301</v>
@@ -7622,7 +7514,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.45593568661264</v>
+        <v>1.427886513564508</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.199852033210435</v>
@@ -7711,7 +7603,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.461315529712869</v>
+        <v>1.434902508045745</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.471450625928025</v>
@@ -7800,7 +7692,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.448482630674133</v>
+        <v>1.424972119915633</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.39353045679064</v>
@@ -7889,7 +7781,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.460187174994131</v>
+        <v>1.441560175798129</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.38469967024618</v>
@@ -7978,7 +7870,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.444158089236826</v>
+        <v>1.425011670601096</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.37755596329898</v>
@@ -8067,7 +7959,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.475405556196241</v>
+        <v>1.449661103589075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.538540575867525</v>
@@ -8156,7 +8048,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.460899697038118</v>
+        <v>1.437105929534384</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.511924470477574</v>
@@ -8245,7 +8137,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.485627215853003</v>
+        <v>1.452554599203571</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.622854706652088</v>
@@ -8334,7 +8226,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.502411575167433</v>
+        <v>1.479270649986778</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.427824980397445</v>
@@ -8423,7 +8315,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.527957059467515</v>
+        <v>1.499502664534099</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.269713656828089</v>
@@ -8512,7 +8404,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49520305065513</v>
+        <v>1.479039788017374</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.426395552023843</v>
@@ -8601,7 +8493,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511980582880475</v>
+        <v>1.50532223484121</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.359130007312147</v>
@@ -8690,7 +8582,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.508343449130713</v>
+        <v>1.5076430369436</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.359548201378882</v>
@@ -8779,7 +8671,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.477369167072769</v>
+        <v>1.481683132400259</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.348947203668776</v>
@@ -8868,7 +8760,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.476144287999174</v>
+        <v>1.480373146076053</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.41972418578721</v>
@@ -8957,7 +8849,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.474720103769184</v>
+        <v>1.484208874658756</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.445096865401883</v>
@@ -9046,7 +8938,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471697819629605</v>
+        <v>1.484760797273716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.417839902181394</v>
@@ -9135,7 +9027,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.456705985861154</v>
+        <v>1.469045252426036</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.417578031459549</v>
@@ -9224,7 +9116,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.423604836064396</v>
+        <v>1.433154173737279</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.5441077015101</v>
@@ -9313,7 +9205,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.439999419692369</v>
+        <v>1.447736214146947</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.516812136605144</v>
@@ -9402,7 +9294,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.42880598995287</v>
+        <v>1.440996318775235</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.376686286935275</v>
@@ -9491,7 +9383,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.44397836090299</v>
+        <v>1.45640236475726</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.399674879576766</v>
@@ -9580,7 +9472,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.431848848897259</v>
+        <v>1.444675043742157</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.403688946063543</v>
@@ -9669,7 +9561,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.42781885129686</v>
+        <v>1.437632182529746</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.464779963833838</v>
@@ -9758,7 +9650,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.400075060516682</v>
+        <v>1.408487244020237</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.141672753386762</v>
@@ -9847,7 +9739,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.415734756848955</v>
+        <v>1.4236831048003</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.258918906770954</v>
@@ -9936,7 +9828,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.412541592219342</v>
+        <v>1.419754555500801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.266242484905846</v>
@@ -10025,7 +9917,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.437144813635448</v>
+        <v>1.444613915094828</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.234672162251739</v>
@@ -10114,7 +10006,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.452633651083723</v>
+        <v>1.455506765787269</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.273565513143152</v>
@@ -10203,7 +10095,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.448359117781248</v>
+        <v>1.451924405119009</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.399841170487751</v>
@@ -10292,7 +10184,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.457896445009967</v>
+        <v>1.461175371822072</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.227931768745821</v>
@@ -10381,7 +10273,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.47209226481756</v>
+        <v>1.475603350512362</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.210660431377286</v>
@@ -10470,7 +10362,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.501171752716645</v>
+        <v>1.502020156586867</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.299304308089118</v>
@@ -10559,7 +10451,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.488862290017768</v>
+        <v>1.478555645677675</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.504883459803798</v>
@@ -10648,7 +10540,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.329055378146212</v>
+        <v>1.334535835683552</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.516447047913493</v>
@@ -10737,7 +10629,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.334317017503267</v>
+        <v>1.341300381836252</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.531671768721075</v>
@@ -10826,7 +10718,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.320294341061861</v>
+        <v>1.326253406436279</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.540374001280939</v>
@@ -10915,7 +10807,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.327677146164089</v>
+        <v>1.336255076194984</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.537556359948764</v>
@@ -11004,7 +10896,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.33649100576947</v>
+        <v>1.345227536799242</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.540832637835095</v>
@@ -11093,7 +10985,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.358570279099987</v>
+        <v>1.370487771452584</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.537910357990443</v>
@@ -11182,7 +11074,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.370078599401395</v>
+        <v>1.383734282973809</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.546557913207052</v>
@@ -11271,7 +11163,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.37468971865595</v>
+        <v>1.389836250444968</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.552197008334839</v>
@@ -11360,7 +11252,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.383581375424964</v>
+        <v>1.399141670140248</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.541906486462303</v>
@@ -11449,7 +11341,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.385611104377354</v>
+        <v>1.402534523450671</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.559378486636285</v>
@@ -11538,7 +11430,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.372414676246845</v>
+        <v>1.389113527162337</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.561121798876585</v>
@@ -11627,7 +11519,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.372736376291265</v>
+        <v>1.387460290983338</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.564997880918694</v>
@@ -11716,7 +11608,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.369268282224154</v>
+        <v>1.382920034656859</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.563407356883273</v>
@@ -11805,7 +11697,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.374398193164987</v>
+        <v>1.386916587100854</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.556032622651317</v>
@@ -11894,7 +11786,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.492202083543054</v>
+        <v>1.470082744323415</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.372072997200064</v>
@@ -11983,7 +11875,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.631362609651014</v>
+        <v>1.633735957379596</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.496564249392305</v>
@@ -12072,7 +11964,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.658959154819185</v>
+        <v>1.651118445903916</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.208827441221034</v>
@@ -12358,7 +12250,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.22928157925557</v>
+        <v>1.224250346778874</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.99059866948414</v>
@@ -12447,7 +12339,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.213005022245962</v>
+        <v>1.208310181788848</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.027332414360658</v>
@@ -12536,7 +12428,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.185277366678855</v>
+        <v>1.177196161867278</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.96589405570827</v>
@@ -12625,7 +12517,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.195168314227901</v>
+        <v>1.182113091247481</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.80700198664631</v>
@@ -12714,7 +12606,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.188536104476484</v>
+        <v>1.171848831582794</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.948637898643287</v>
@@ -12803,7 +12695,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.182851228521947</v>
+        <v>1.163126054556402</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.943768551246973</v>
@@ -12892,7 +12784,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.17694564602805</v>
+        <v>1.153272820074485</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.91505335146945</v>
@@ -12981,7 +12873,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.187332791897835</v>
+        <v>1.159404817132902</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.934138369070513</v>
@@ -13070,7 +12962,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.185982462230331</v>
+        <v>1.154650310275012</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001408272977125</v>
@@ -13159,7 +13051,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.182164292901262</v>
+        <v>1.149927404846352</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.965492115809239</v>
@@ -13248,7 +13140,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.192120721539361</v>
+        <v>1.15782455061071</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.979335298522795</v>
@@ -13337,7 +13229,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.178714535773875</v>
+        <v>1.149003835286154</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.005298784084907</v>
@@ -13426,7 +13318,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.181231323134529</v>
+        <v>1.15113549544893</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.928431994840607</v>
@@ -13515,7 +13407,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.190633291030848</v>
+        <v>1.163520132844845</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.940867064374105</v>
@@ -13604,7 +13496,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.20293728043396</v>
+        <v>1.173434560826663</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.013586480880712</v>
@@ -13693,7 +13585,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.213694374202496</v>
+        <v>1.178391284817718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.970425365940488</v>
@@ -13782,7 +13674,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.228180684580844</v>
+        <v>1.183705694998365</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.001150341272042</v>
@@ -13871,7 +13763,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.262132043299836</v>
+        <v>1.201355538687971</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.924398709579659</v>
@@ -13960,7 +13852,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.278245891148701</v>
+        <v>1.208870359471203</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.895669529575553</v>
@@ -14049,7 +13941,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.286629233156227</v>
+        <v>1.216748756847472</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.917900403098797</v>
@@ -14138,7 +14030,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.295353801462028</v>
+        <v>1.221563874735606</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.941265100451772</v>
@@ -14227,7 +14119,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.320635942375152</v>
+        <v>1.241116593574046</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.882703498670841</v>
@@ -14316,7 +14208,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.343653812690369</v>
+        <v>1.247460470155933</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.960694086980262</v>
@@ -14405,7 +14297,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.356409440387152</v>
+        <v>1.250413477162992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.965548763263666</v>
@@ -14494,7 +14386,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.374026831024472</v>
+        <v>1.251309453286849</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.009885910078788</v>
@@ -14583,7 +14475,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.412704737070846</v>
+        <v>1.270460539687594</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.449660861187045</v>
@@ -14672,7 +14564,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.403995873428993</v>
+        <v>1.263008533059691</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.59995629893836</v>
@@ -14761,7 +14653,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.394043475062635</v>
+        <v>1.255726202785969</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.619029781962286</v>
@@ -14850,7 +14742,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.397596115377168</v>
+        <v>1.256686326262144</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.548050392283888</v>
@@ -14939,7 +14831,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.393140563053315</v>
+        <v>1.248844866648274</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.716514220955539</v>
@@ -15028,7 +14920,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.375408800410857</v>
+        <v>1.239432528331834</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.556108516300575</v>
@@ -15117,7 +15009,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.360505288570367</v>
+        <v>1.230343771646515</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.675024808942664</v>
@@ -15206,7 +15098,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.338535001961272</v>
+        <v>1.221087670471151</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.692780524835381</v>
@@ -15295,7 +15187,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.321250911640362</v>
+        <v>1.209267259533439</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.443800642930763</v>
@@ -15384,7 +15276,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.303561456529061</v>
+        <v>1.193254752980113</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.635147269578616</v>
@@ -15473,7 +15365,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.296172039301295</v>
+        <v>1.187898475605633</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.685009401451383</v>
@@ -15562,7 +15454,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.280654860239814</v>
+        <v>1.179877262096671</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.686445967635047</v>
@@ -15651,7 +15543,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.263998472285637</v>
+        <v>1.170986520224094</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.81235380640723</v>
@@ -15740,7 +15632,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.242162917882663</v>
+        <v>1.159769450674218</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.697359217186531</v>
@@ -15829,7 +15721,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.228386386216819</v>
+        <v>1.154195302558481</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.761599932524156</v>
@@ -15918,7 +15810,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.210618490564667</v>
+        <v>1.144318226043467</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.495174120307307</v>
@@ -16007,7 +15899,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.201351893294122</v>
+        <v>1.137107491244571</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.853950224697924</v>
@@ -16096,7 +15988,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.195716608356399</v>
+        <v>1.132313875578357</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.620593028325195</v>
@@ -16185,7 +16077,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.193162505071413</v>
+        <v>1.129974948602303</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.542800787488136</v>
@@ -16274,7 +16166,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.183409602698091</v>
+        <v>1.126395569731702</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.64743277693165</v>
@@ -16363,7 +16255,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.181866939403886</v>
+        <v>1.125612331846338</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.590138877144828</v>
@@ -16452,7 +16344,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.184553536949653</v>
+        <v>1.129234490012234</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.383558125610528</v>
@@ -16541,7 +16433,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.181799111366626</v>
+        <v>1.133706419252113</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.633405257041483</v>
@@ -16630,7 +16522,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.180862240130548</v>
+        <v>1.134868573458022</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.334707259365482</v>
@@ -16719,7 +16611,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.181858625004123</v>
+        <v>1.140040407332292</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.536004893471592</v>
@@ -16808,7 +16700,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.177317919332083</v>
+        <v>1.141288632402622</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.418248909605916</v>
@@ -16897,7 +16789,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.173662864988278</v>
+        <v>1.143187285347429</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.378161985324959</v>
@@ -16986,7 +16878,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.188619836153456</v>
+        <v>1.162912216161025</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.453033053795364</v>
@@ -17075,7 +16967,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.212334534458317</v>
+        <v>1.189564110429351</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.222165717153064</v>
@@ -17164,7 +17056,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.23155795640157</v>
+        <v>1.211557058426068</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.360479985822387</v>
@@ -17253,7 +17145,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.247788029248298</v>
+        <v>1.227565584002314</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.163803931883826</v>
@@ -17342,7 +17234,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.272019381903205</v>
+        <v>1.253020608202561</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.201503388485786</v>
@@ -17431,7 +17323,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.29799710350039</v>
+        <v>1.27972988733798</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.252626468704864</v>
@@ -17520,7 +17412,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.322693333824275</v>
+        <v>1.306307544374478</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.021537777055065</v>
@@ -17609,7 +17501,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.346714865312731</v>
+        <v>1.337422519865453</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.535123265453585</v>
@@ -17698,7 +17590,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.386306712692103</v>
+        <v>1.384120606730953</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.551275470617066</v>
@@ -17984,7 +17876,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.449864631168327</v>
+        <v>1.408590720163634</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.4119164196457</v>
@@ -18073,7 +17965,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.465244735942637</v>
+        <v>1.421790992597868</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.278743948066374</v>
@@ -18162,7 +18054,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.48899748036108</v>
+        <v>1.442198375964219</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.712507320525489</v>
@@ -18251,7 +18143,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.494741910677521</v>
+        <v>1.43687695750054</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.008275761955259</v>
@@ -18340,7 +18232,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.483007911241569</v>
+        <v>1.421739095495826</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.811056544684226</v>
@@ -18429,7 +18321,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485688735640761</v>
+        <v>1.428413026897724</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.615485165310926</v>
@@ -18518,7 +18410,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.497652911951627</v>
+        <v>1.426457597695731</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.781377411535814</v>
@@ -18607,7 +18499,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.50246036031362</v>
+        <v>1.428895069697982</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.978589609761742</v>
@@ -18696,7 +18588,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.517517493154906</v>
+        <v>1.445026892884186</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.804693104988509</v>
@@ -18785,7 +18677,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.521866541467747</v>
+        <v>1.448550766131243</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.821877301071897</v>
@@ -18874,7 +18766,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531510878674631</v>
+        <v>1.454902164043431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.641209548012649</v>
@@ -18963,7 +18855,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.531905970481148</v>
+        <v>1.455264398524942</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.742424465166092</v>
@@ -19052,7 +18944,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.539853891797154</v>
+        <v>1.46537284912475</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.758447805531623</v>
@@ -19141,7 +19033,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547806561673118</v>
+        <v>1.478216345365553</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.788976646912264</v>
@@ -19230,7 +19122,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.548507126124463</v>
+        <v>1.484035864704868</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.806596216169783</v>
@@ -19319,7 +19211,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.563406857063561</v>
+        <v>1.498326620288937</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.627904500184767</v>
@@ -19408,7 +19300,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.56991948086061</v>
+        <v>1.505093728740708</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.001788823338266</v>
@@ -19497,7 +19389,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.585203341932446</v>
+        <v>1.508904670408434</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.803239703715389</v>
@@ -19586,7 +19478,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.601497299153123</v>
+        <v>1.532146926256595</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.940846728864619</v>
@@ -19675,7 +19567,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626809560994146</v>
+        <v>1.554805376853277</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.860278692699908</v>
@@ -19764,7 +19656,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.622877767466946</v>
+        <v>1.558701051627303</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.360085780253342</v>
@@ -19853,7 +19745,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.634520107295151</v>
+        <v>1.582275324275005</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.1357918154066</v>
@@ -19942,7 +19834,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626920839579951</v>
+        <v>1.581851441811904</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.845180806126644</v>
@@ -20031,7 +19923,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601830658750958</v>
+        <v>1.557708512054814</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.833928255993512</v>
@@ -20120,7 +20012,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595168881023524</v>
+        <v>1.548128902729579</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.757538879741395</v>
@@ -20209,7 +20101,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602800144304237</v>
+        <v>1.549234087445091</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.592875302789936</v>
@@ -20298,7 +20190,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594725752751445</v>
+        <v>1.545552435838279</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.740374429566279</v>
@@ -20387,7 +20279,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59234853301495</v>
+        <v>1.548126780953355</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.862803264579945</v>
@@ -20476,7 +20368,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.586142473673109</v>
+        <v>1.537006878735739</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.851484960200137</v>
@@ -20565,7 +20457,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.598579454689896</v>
+        <v>1.543789128042739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.601764020030007</v>
@@ -20654,7 +20546,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602827707039691</v>
+        <v>1.547796657045561</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.677690263353434</v>
@@ -20743,7 +20635,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594590156277531</v>
+        <v>1.537858699129663</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.786096378247124</v>
@@ -20832,7 +20724,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591174032068576</v>
+        <v>1.536019020470921</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.76707015670433</v>
@@ -20921,7 +20813,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.585990308827661</v>
+        <v>1.527221186232302</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.749729118789467</v>
@@ -21010,7 +20902,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.570564351789441</v>
+        <v>1.517336578818647</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.715594540829933</v>
@@ -21099,7 +20991,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579191410882633</v>
+        <v>1.52082243666428</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.717624002986016</v>
@@ -21188,7 +21080,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576481458206374</v>
+        <v>1.518091373981223</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.592724266556937</v>
@@ -21277,7 +21169,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.58428267815956</v>
+        <v>1.521302483979607</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.914193724244322</v>
@@ -21366,7 +21258,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607434687291366</v>
+        <v>1.548515413054019</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.897075464928672</v>
@@ -21455,7 +21347,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607817322603241</v>
+        <v>1.55639566870875</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.787767854316552</v>
@@ -21544,7 +21436,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611811573806489</v>
+        <v>1.560974238239515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.930114847226458</v>
@@ -21633,7 +21525,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.61116863449436</v>
+        <v>1.556823499518698</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.00517926020197</v>
@@ -21722,7 +21614,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.613559712968699</v>
+        <v>1.554165020248309</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.116626342047674</v>
@@ -21811,7 +21703,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.619359582498141</v>
+        <v>1.560471213575896</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.693042925638211</v>
@@ -21900,7 +21792,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.59631552250714</v>
+        <v>1.544178734523423</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.391352184398366</v>
@@ -21989,7 +21881,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.589368504440611</v>
+        <v>1.540364500455448</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.513043269330169</v>
@@ -22078,7 +21970,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.591375513776577</v>
+        <v>1.545074478219215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.512387054191096</v>
@@ -22167,7 +22059,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594418363582289</v>
+        <v>1.553359292036955</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.347890754881243</v>
@@ -22256,7 +22148,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.591862097663712</v>
+        <v>1.55176780210549</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.560864701638628</v>
@@ -22345,7 +22237,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.595213279688763</v>
+        <v>1.560847578610143</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.439815639611356</v>
@@ -22434,7 +22326,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.605425173006799</v>
+        <v>1.575197986566893</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.406514987031982</v>
@@ -22523,7 +22415,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609610390968298</v>
+        <v>1.583780619459725</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.569647919150578</v>
@@ -22612,7 +22504,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.616859221868304</v>
+        <v>1.597483785786357</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.475861882384027</v>
@@ -22701,7 +22593,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.626630960885518</v>
+        <v>1.601073024232968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.540924216874212</v>
@@ -22790,7 +22682,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612909047458073</v>
+        <v>1.585771730892424</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.488979102177014</v>
@@ -22879,7 +22771,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600105646997058</v>
+        <v>1.576435561018938</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.526665407145768</v>
@@ -22968,7 +22860,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.597548768918837</v>
+        <v>1.574019689249878</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.4906199689258</v>
@@ -23057,7 +22949,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.598907475871024</v>
+        <v>1.574299797732299</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.553721096884119</v>
@@ -23146,7 +23038,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.617867718946384</v>
+        <v>1.586886645381848</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.177838806137077</v>
@@ -23235,7 +23127,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.624731477211548</v>
+        <v>1.596576336422604</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.009419514637934</v>
@@ -23324,7 +23216,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.633568690557463</v>
+        <v>1.599416171076221</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.905689321861608</v>
@@ -23610,7 +23502,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.60140794329796</v>
+        <v>1.551807751058093</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.458914247443569</v>
@@ -23699,7 +23591,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.5873266511982</v>
+        <v>1.540905215989989</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.360357336531838</v>
@@ -23788,7 +23680,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580912365554186</v>
+        <v>1.532828279827027</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.005871710169967</v>
@@ -23877,7 +23769,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.571680223535026</v>
+        <v>1.509750751068082</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.242511520210776</v>
@@ -23966,7 +23858,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.57181550994897</v>
+        <v>1.507635074378356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.556549667097603</v>
@@ -24055,7 +23947,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579528681142141</v>
+        <v>1.512994707638894</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.976152273815713</v>
@@ -24144,7 +24036,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577657381988882</v>
+        <v>1.506258079749915</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.998417349176197</v>
@@ -24233,7 +24125,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577390558075948</v>
+        <v>1.503982716664902</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.35128961967709</v>
@@ -24322,7 +24214,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.580919190407394</v>
+        <v>1.504187929227475</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.307607348176158</v>
@@ -24411,7 +24303,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587126120729885</v>
+        <v>1.506049796948294</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.080910376303568</v>
@@ -24500,7 +24392,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.590788423840302</v>
+        <v>1.511474601351378</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.650677388204489</v>
@@ -24589,7 +24481,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.592512169174669</v>
+        <v>1.511109048940672</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.545405781824608</v>
@@ -24678,7 +24570,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590994618509252</v>
+        <v>1.512884934395643</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.174927436719024</v>
@@ -24767,7 +24659,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.5857917672914</v>
+        <v>1.514448991372851</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.387228065049386</v>
@@ -24856,7 +24748,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579653345187432</v>
+        <v>1.509737480399808</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.526982347743923</v>
@@ -24945,7 +24837,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589043206819827</v>
+        <v>1.515398921641061</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.030281317392509</v>
@@ -25034,7 +24926,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.58469772235472</v>
+        <v>1.51186674029262</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.14605709373213</v>
@@ -25123,7 +25015,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.583709357339841</v>
+        <v>1.502677531999584</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.277328203842559</v>
@@ -25212,7 +25104,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.582592410184502</v>
+        <v>1.509669229878732</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.232619698189647</v>
@@ -25301,7 +25193,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592596091951364</v>
+        <v>1.522262619482549</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.99636949173541</v>
@@ -25390,7 +25282,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.577948829172649</v>
+        <v>1.511871481721571</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.436202333812532</v>
@@ -25479,7 +25371,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.583176574629697</v>
+        <v>1.526957643464507</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.265842229510618</v>
@@ -25568,7 +25460,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.595156421848252</v>
+        <v>1.536261406832135</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.9210647919807</v>
@@ -25657,7 +25549,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.577269557312307</v>
+        <v>1.526557016628023</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.36207371703694</v>
@@ -25746,7 +25638,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.580783065571205</v>
+        <v>1.529160357191636</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.393364220934617</v>
@@ -25835,7 +25727,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587733482830604</v>
+        <v>1.531631867442467</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.243209446084703</v>
@@ -25924,7 +25816,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.579972923184185</v>
+        <v>1.52614627691326</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.184950153210209</v>
@@ -26013,7 +25905,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584796556090448</v>
+        <v>1.528539358563228</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.257247422218508</v>
@@ -26102,7 +25994,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.589405562637055</v>
+        <v>1.530619162046947</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.423417135758438</v>
@@ -26191,7 +26083,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.598380725860307</v>
+        <v>1.54088003657838</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.032782091327255</v>
@@ -26280,7 +26172,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.604447340903653</v>
+        <v>1.550057411322993</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.44090684638739</v>
@@ -26369,7 +26261,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.605668038407224</v>
+        <v>1.549236416311061</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.077684505465314</v>
@@ -26458,7 +26350,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.613615590540384</v>
+        <v>1.56210880269309</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.334407776969443</v>
@@ -26547,7 +26439,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.623765342638926</v>
+        <v>1.576747998426683</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.414545383887877</v>
@@ -26636,7 +26528,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.624866484642719</v>
+        <v>1.573568574142837</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.290579107427005</v>
@@ -26725,7 +26617,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637093521751718</v>
+        <v>1.587625593260588</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.079076526080724</v>
@@ -26814,7 +26706,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643707946951487</v>
+        <v>1.588968557388516</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.231302539503659</v>
@@ -26903,7 +26795,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646475997629262</v>
+        <v>1.591241247689707</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.09112105891987</v>
@@ -26992,7 +26884,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.657754586863996</v>
+        <v>1.600249793904424</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.369992663593131</v>
@@ -27081,7 +26973,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.656999752843629</v>
+        <v>1.60292208865692</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.334737609840621</v>
@@ -27170,7 +27062,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.660295725434586</v>
+        <v>1.608953265957793</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.335822019681081</v>
@@ -27259,7 +27151,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666270072997171</v>
+        <v>1.61008019901222</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.181976153255955</v>
@@ -27348,7 +27240,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.665758770278036</v>
+        <v>1.613163304675699</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.3594287898966</v>
@@ -27437,7 +27329,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.673720282328655</v>
+        <v>1.62339653543992</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.835051764496164</v>
@@ -27526,7 +27418,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.645112646630691</v>
+        <v>1.604553047746119</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.446876354785958</v>
@@ -27615,7 +27507,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639248820477831</v>
+        <v>1.597315118574652</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.687478181039546</v>
@@ -27704,7 +27596,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.642622943695889</v>
+        <v>1.604698388859549</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.653795077618969</v>
@@ -27793,7 +27685,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.646699250985829</v>
+        <v>1.613854683929899</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.761688262744841</v>
@@ -27882,7 +27774,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.635641706304376</v>
+        <v>1.602684621417644</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.68096445083189</v>
@@ -27971,7 +27863,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643187411789164</v>
+        <v>1.615867876223018</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.732972882492109</v>
@@ -28060,7 +27952,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.65335592945034</v>
+        <v>1.630054024090454</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.708017619190968</v>
@@ -28149,7 +28041,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.647632913315118</v>
+        <v>1.630367085944191</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.647671815114511</v>
@@ -28238,7 +28130,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.658135380653495</v>
+        <v>1.64476226765837</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.659996211418175</v>
@@ -28327,7 +28219,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.662203465312748</v>
+        <v>1.647971375641565</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.586990650711631</v>
@@ -28416,7 +28308,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.648916006552007</v>
+        <v>1.63261078654543</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.660367172728157</v>
@@ -28505,7 +28397,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.635850509130528</v>
+        <v>1.622930292214523</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.633751656606129</v>
@@ -28594,7 +28486,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63325505585635</v>
+        <v>1.618297047764804</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.697165885073183</v>
@@ -28683,7 +28575,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.627462637174043</v>
+        <v>1.61297183448808</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.532475604980451</v>
@@ -28772,7 +28664,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.631705258027234</v>
+        <v>1.611922744909946</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.27057102621625</v>
@@ -28861,7 +28753,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.643059348504486</v>
+        <v>1.621284927768792</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.510450079088152</v>
@@ -28950,7 +28842,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.649541500641988</v>
+        <v>1.628899959538874</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.193037169558016</v>
@@ -29236,7 +29128,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499218014386459</v>
+        <v>1.46720670103355</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.746223347619278</v>
@@ -29325,7 +29217,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523194650524891</v>
+        <v>1.491706314061455</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.704460369354319</v>
@@ -29414,7 +29306,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.494289239331801</v>
+        <v>1.458816530608697</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.548916469011176</v>
@@ -29503,7 +29395,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.488222797382462</v>
+        <v>1.440692918518282</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.6566468428273</v>
@@ -29592,7 +29484,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501109131470744</v>
+        <v>1.449267662117806</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.471558465428997</v>
@@ -29681,7 +29573,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506486104997376</v>
+        <v>1.450772240425668</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.396417759542504</v>
@@ -29770,7 +29662,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.517473287346057</v>
+        <v>1.458286340859869</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.498182759438571</v>
@@ -29859,7 +29751,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.504075725902189</v>
+        <v>1.447282707060021</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.469619626797423</v>
@@ -29948,7 +29840,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511390099849979</v>
+        <v>1.456623705937945</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.559199646824789</v>
@@ -30037,7 +29929,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.511077057998175</v>
+        <v>1.456163675538311</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.837487250616892</v>
@@ -30126,7 +30018,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522950086651232</v>
+        <v>1.463996001849201</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.702802410711472</v>
@@ -30215,7 +30107,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.526439261123715</v>
+        <v>1.473681893930247</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.581016269560898</v>
@@ -30304,7 +30196,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.521994139054825</v>
+        <v>1.474167054705035</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.608474228965074</v>
@@ -30393,7 +30285,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.509739664976485</v>
+        <v>1.464594996708462</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.559943838392246</v>
@@ -30482,7 +30374,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.476096198236629</v>
+        <v>1.436376682500794</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.492020029282368</v>
@@ -30571,7 +30463,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.474246059390097</v>
+        <v>1.433466188605985</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.598197864653685</v>
@@ -30660,7 +30552,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.450864434837541</v>
+        <v>1.411436813032681</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.513408582201516</v>
@@ -30749,7 +30641,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.460687690431952</v>
+        <v>1.422021092211545</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.712636139771086</v>
@@ -30838,7 +30730,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.480031798003855</v>
+        <v>1.44630769447064</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.478995361572401</v>
@@ -30927,7 +30819,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.482922762128984</v>
+        <v>1.453853967901562</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.528748102025788</v>
@@ -31016,7 +30908,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.472161238117925</v>
+        <v>1.448421783152683</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.652283908965135</v>
@@ -31105,7 +30997,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478106410352553</v>
+        <v>1.458464440560618</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.359864784491626</v>
@@ -31194,7 +31086,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.474987630596056</v>
+        <v>1.457243462648039</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.465458627905529</v>
@@ -31283,7 +31175,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.472892098716871</v>
+        <v>1.454090797456354</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.456994332045999</v>
@@ -31372,7 +31264,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.467587689177342</v>
+        <v>1.445147038202826</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.555267380967667</v>
@@ -31461,7 +31353,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.472201383669861</v>
+        <v>1.453209021736921</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.469169155264194</v>
@@ -31550,7 +31442,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472201163526187</v>
+        <v>1.44878683650831</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.450616549562544</v>
@@ -31639,7 +31531,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.45974576397813</v>
+        <v>1.434385649152833</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.620417835050624</v>
@@ -31728,7 +31620,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.46448992789676</v>
+        <v>1.433846891736011</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.602312008828105</v>
@@ -31817,7 +31709,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.488871368848671</v>
+        <v>1.448546516300407</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.579058889525434</v>
@@ -31906,7 +31798,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495191921023511</v>
+        <v>1.459907958982135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.578059406624402</v>
@@ -31995,7 +31887,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.501371281215265</v>
+        <v>1.463816875967543</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.593096090501179</v>
@@ -32084,7 +31976,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.49856662998876</v>
+        <v>1.461550575956878</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.552911943959347</v>
@@ -32173,7 +32065,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.4831288895958</v>
+        <v>1.446335545121827</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.617010658479657</v>
@@ -32262,7 +32154,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469178657191034</v>
+        <v>1.425425476353504</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.444861084713215</v>
@@ -32351,7 +32243,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.477601320674616</v>
+        <v>1.431642615963628</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.657843662020155</v>
@@ -32440,7 +32332,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.483684204721718</v>
+        <v>1.43681312673648</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.453180651034273</v>
@@ -32529,7 +32421,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.496489097144216</v>
+        <v>1.447059673041595</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.698883639879505</v>
@@ -32618,7 +32510,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503475390133527</v>
+        <v>1.452612454925893</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.718149727117725</v>
@@ -32707,7 +32599,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.513006904109623</v>
+        <v>1.466847556815746</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.552395846887582</v>
@@ -32796,7 +32688,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.517221496349418</v>
+        <v>1.470107400498398</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.655243473720129</v>
@@ -32885,7 +32777,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.515999440488158</v>
+        <v>1.470337605901472</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.65510748535443</v>
@@ -32974,7 +32866,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.520579120034608</v>
+        <v>1.476176219882274</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.551470616383612</v>
@@ -33063,7 +32955,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.529526941425442</v>
+        <v>1.487646067985643</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.464179770154201</v>
@@ -33152,7 +33044,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.521027456367806</v>
+        <v>1.48868640406528</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.371194478250839</v>
@@ -33241,7 +33133,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534459233882793</v>
+        <v>1.501700326292535</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.617065340252042</v>
@@ -33330,7 +33222,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.518312613770878</v>
+        <v>1.481802868574197</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.68375116030247</v>
@@ -33419,7 +33311,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.528121456499854</v>
+        <v>1.490344600534361</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.575260796953172</v>
@@ -33508,7 +33400,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551225005586514</v>
+        <v>1.514056421624433</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.471213691681901</v>
@@ -33597,7 +33489,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.582667982357771</v>
+        <v>1.551058156446836</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.670111822883026</v>
@@ -33686,7 +33578,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603870347321962</v>
+        <v>1.575848534691096</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.570706701155328</v>
@@ -33775,7 +33667,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.614770947626809</v>
+        <v>1.587143257712923</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.637873187467852</v>
@@ -33864,7 +33756,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621507714836305</v>
+        <v>1.591854255076387</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.616349623095673</v>
@@ -33953,7 +33845,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.617164409320867</v>
+        <v>1.587319190808208</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.641327406337466</v>
@@ -34042,7 +33934,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.586924404757505</v>
+        <v>1.556263113062759</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.701005516434382</v>
@@ -34131,7 +34023,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.590056371932267</v>
+        <v>1.557819964632329</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.55623760165011</v>
@@ -34220,7 +34112,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.595405969456981</v>
+        <v>1.562792481288929</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.718079590022245</v>
@@ -34309,7 +34201,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.59957800048859</v>
+        <v>1.563261266220147</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.623313190600553</v>
@@ -34398,7 +34290,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.615935505758639</v>
+        <v>1.569513764952807</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.221250015619496</v>
@@ -34487,7 +34379,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.630534467428279</v>
+        <v>1.583207519837192</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.690732748940745</v>
@@ -34576,7 +34468,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.63846154345544</v>
+        <v>1.584598716925137</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.441887072393797</v>
@@ -34862,7 +34754,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.316879742390337</v>
+        <v>1.30264034797525</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.214609423268401</v>
@@ -34951,7 +34843,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.333573099961986</v>
+        <v>1.32042063943227</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.130814434279961</v>
@@ -35040,7 +34932,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.310088019862386</v>
+        <v>1.296764883327872</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.041301109136404</v>
@@ -35129,7 +35021,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.322160434187004</v>
+        <v>1.302612925854084</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.177540134071819</v>
@@ -35218,7 +35110,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.339394071802163</v>
+        <v>1.311585808317594</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.211735603908132</v>
@@ -35307,7 +35199,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.343489718584511</v>
+        <v>1.318086728801086</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.048544219183759</v>
@@ -35396,7 +35288,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.350306707106288</v>
+        <v>1.319397582482558</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.280749915437761</v>
@@ -35485,7 +35377,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.324628417585719</v>
+        <v>1.29785121092355</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.080682167798243</v>
@@ -35574,7 +35466,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.345048582041215</v>
+        <v>1.319457158971395</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.217416470912965</v>
@@ -35663,7 +35555,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.352392558515646</v>
+        <v>1.326566507641606</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.272486678269394</v>
@@ -35752,7 +35644,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.375527118574803</v>
+        <v>1.344073734859722</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.002934691651292</v>
@@ -35841,7 +35733,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.385195968114913</v>
+        <v>1.357514124255093</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.284588681958193</v>
@@ -35930,7 +35822,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.382987423624461</v>
+        <v>1.358716993864288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.256577472633857</v>
@@ -36019,7 +35911,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.382262557228235</v>
+        <v>1.360914659573242</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.340742183133635</v>
@@ -36108,7 +36000,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.365913492104898</v>
+        <v>1.345257055527108</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.150276686736216</v>
@@ -36197,7 +36089,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.38585397498818</v>
+        <v>1.361638316002489</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.414670308207512</v>
@@ -36286,7 +36178,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.356661538151478</v>
+        <v>1.334883634805654</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.224110129969222</v>
@@ -36375,7 +36267,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.384091669897333</v>
+        <v>1.359928352732815</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.404347125000105</v>
@@ -36464,7 +36356,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.392399448575127</v>
+        <v>1.374043117878855</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.233809201428892</v>
@@ -36553,7 +36445,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.413571039766718</v>
+        <v>1.395353345585203</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.188990044277386</v>
@@ -36642,7 +36534,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.38147636054036</v>
+        <v>1.370910382787342</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.232205170160421</v>
@@ -36731,7 +36623,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.389267641050745</v>
+        <v>1.385418572826941</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.132044620373944</v>
@@ -36820,7 +36712,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.392205657908569</v>
+        <v>1.389313787020519</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.132637698524587</v>
@@ -36909,7 +36801,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.363327160443493</v>
+        <v>1.361793879333535</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.181334770269991</v>
@@ -36998,7 +36890,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.354024290873354</v>
+        <v>1.349386538688825</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.229799047963203</v>
@@ -37087,7 +36979,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.358141737180293</v>
+        <v>1.351993588733611</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.197216277811692</v>
@@ -37176,7 +37068,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.362405428252218</v>
+        <v>1.358627864810826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.209982061499343</v>
@@ -37265,7 +37157,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.338883388887623</v>
+        <v>1.334259446319197</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.195505491285108</v>
@@ -37354,7 +37246,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.312193902907132</v>
+        <v>1.311247957442785</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.254548319836678</v>
@@ -37443,7 +37335,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.337273565144242</v>
+        <v>1.332299601354173</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.222625730995861</v>
@@ -37532,7 +37424,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.335415016174656</v>
+        <v>1.335969837070461</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.322165211888844</v>
@@ -37621,7 +37513,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.358165599850907</v>
+        <v>1.360272773046349</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.219216734290931</v>
@@ -37710,7 +37602,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.347182420990972</v>
+        <v>1.351304801389114</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.308549354472094</v>
@@ -37799,7 +37691,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.34028097411705</v>
+        <v>1.340424021455991</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.339925413713986</v>
@@ -37888,7 +37780,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.332460059978625</v>
+        <v>1.327628648008614</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.070018808781438</v>
@@ -37977,7 +37869,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.357859977640013</v>
+        <v>1.352888774495892</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.220291467911834</v>
@@ -38066,7 +37958,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.354846951077983</v>
+        <v>1.349334156759221</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.205347989808387</v>
@@ -38155,7 +38047,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.380768496496002</v>
+        <v>1.369638337523846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.246637181092542</v>
@@ -38244,7 +38136,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.40846429280834</v>
+        <v>1.39497663599818</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.180667696945788</v>
@@ -38333,7 +38225,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.411116038933591</v>
+        <v>1.403461327332966</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.160782948178775</v>
@@ -38422,7 +38314,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.41628854328101</v>
+        <v>1.410627651411052</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.239701056473076</v>
@@ -38511,7 +38403,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.416805065430992</v>
+        <v>1.409117547639358</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.167047770163134</v>
@@ -38600,7 +38492,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45198990124453</v>
+        <v>1.445670789221435</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.308575550683551</v>
@@ -38689,7 +38581,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.50158187448286</v>
+        <v>1.485302651529391</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.151647090089644</v>
@@ -38778,7 +38670,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.496287138151496</v>
+        <v>1.479253379434536</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.119382898844825</v>
@@ -38867,7 +38759,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.513538605847163</v>
+        <v>1.498544534651548</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.109716604192876</v>
@@ -38956,7 +38848,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462361477606437</v>
+        <v>1.452043490420571</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.150537973307076</v>
@@ -39045,7 +38937,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.48141184069545</v>
+        <v>1.469487818442512</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.076114865451175</v>
@@ -39134,7 +39026,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.495690289982372</v>
+        <v>1.485032955945556</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.14378042388093</v>
@@ -39223,7 +39115,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.541244880303119</v>
+        <v>1.531020074326964</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.159963889241903</v>
@@ -39312,7 +39204,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.550694148692117</v>
+        <v>1.543813646602232</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.127511895067201</v>
@@ -39401,7 +39293,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.559631150428881</v>
+        <v>1.554296088254369</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.096209236352035</v>
@@ -39490,7 +39382,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.566804544495406</v>
+        <v>1.564676996189631</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.231036456921334</v>
@@ -39579,7 +39471,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.549445279336757</v>
+        <v>1.548922720759204</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.138687667949324</v>
@@ -39668,7 +39560,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.495571910030113</v>
+        <v>1.503134242674616</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.155224465516804</v>
@@ -39757,7 +39649,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.495299963922249</v>
+        <v>1.499081823545102</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.154271542700855</v>
@@ -39846,7 +39738,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.497515489346373</v>
+        <v>1.503044540275581</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.190318819931482</v>
@@ -39935,7 +39827,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.502062748323178</v>
+        <v>1.505182664540016</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.220341067930899</v>
@@ -40024,7 +39916,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.51176662953011</v>
+        <v>1.513864432613887</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.00547500122609</v>
@@ -40113,7 +40005,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.515704535120405</v>
+        <v>1.520552156128474</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.051562985812354</v>
@@ -40202,7 +40094,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542229043315571</v>
+        <v>1.537095622265137</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.981542579172206</v>
